--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4E1823-740C-4F2E-9DC6-4A2D224109EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +52,6 @@
     <t>فروش داخلی (ریال)</t>
   </si>
   <si>
-    <t>صادرات (ریال)</t>
-  </si>
-  <si>
     <t>نرخ تسعیر ارز</t>
   </si>
   <si>
@@ -106,13 +104,16 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>صادرات</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,14 +469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
@@ -491,7 +492,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="38.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -520,24 +521,24 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
         <v>1403</v>
@@ -564,15 +565,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>1403</v>
@@ -599,15 +600,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>1403</v>
@@ -634,15 +635,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>1403</v>
@@ -669,15 +670,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>1403</v>
@@ -704,15 +705,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>1403</v>
@@ -739,15 +740,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>1403</v>
@@ -774,15 +775,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>1403</v>
@@ -809,15 +810,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>1403</v>
@@ -844,15 +845,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>1403</v>
@@ -879,15 +880,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2">
         <v>1403</v>
@@ -914,15 +915,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
         <v>1403</v>
@@ -949,15 +950,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
         <v>1403</v>
@@ -984,15 +985,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2">
         <v>1403</v>
@@ -1019,15 +1020,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2">
         <v>1403</v>
@@ -1054,15 +1055,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2">
         <v>1403</v>
@@ -1089,15 +1090,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
         <v>1403</v>
@@ -1124,15 +1125,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
         <v>1403</v>
@@ -1159,15 +1160,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2">
         <v>1403</v>
@@ -1194,15 +1195,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2">
         <v>1403</v>
@@ -1229,15 +1230,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
         <v>1403</v>
@@ -1264,15 +1265,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2">
         <v>1403</v>
@@ -1299,15 +1300,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2">
         <v>1403</v>
@@ -1334,15 +1335,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2">
         <v>1403</v>
@@ -1369,15 +1370,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2">
         <v>1403</v>
@@ -1404,15 +1405,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2">
         <v>1403</v>
@@ -1439,15 +1440,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2">
         <v>1403</v>
@@ -1474,15 +1475,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2">
         <v>1403</v>
@@ -1509,15 +1510,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2">
         <v>1403</v>
@@ -1544,15 +1545,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2">
         <v>1403</v>
@@ -1579,15 +1580,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="2">
         <v>1403</v>
@@ -1614,15 +1615,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="2">
         <v>1403</v>
@@ -1649,15 +1650,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="2">
         <v>1403</v>
@@ -1684,15 +1685,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="2">
         <v>1403</v>
@@ -1719,15 +1720,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="2">
         <v>1403</v>
@@ -1754,15 +1755,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2">
         <v>1403</v>
@@ -1789,15 +1790,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2">
         <v>1403</v>
@@ -1824,15 +1825,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="2">
         <v>1403</v>
@@ -1859,15 +1860,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2">
         <v>1403</v>
@@ -1894,15 +1895,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2">
         <v>1403</v>
@@ -1929,15 +1930,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="2">
         <v>1403</v>
@@ -1964,15 +1965,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" s="2">
         <v>1403</v>
@@ -1999,15 +2000,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2">
         <v>1403</v>
@@ -2034,15 +2035,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="2">
         <v>1403</v>
@@ -2069,15 +2070,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46" s="2">
         <v>1403</v>
@@ -2104,15 +2105,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2">
         <v>1403</v>
@@ -2139,15 +2140,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2">
         <v>1403</v>
@@ -2174,15 +2175,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2">
         <v>1403</v>
@@ -2209,15 +2210,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2">
         <v>1403</v>
@@ -2244,15 +2245,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2">
         <v>1403</v>
@@ -2279,15 +2280,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2">
         <v>1403</v>
@@ -2314,15 +2315,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2">
         <v>1403</v>
@@ -2349,15 +2350,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2">
         <v>1403</v>
@@ -2384,15 +2385,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2">
         <v>1403</v>
@@ -2419,15 +2420,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2">
         <v>1403</v>
@@ -2454,15 +2455,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2">
         <v>1403</v>
@@ -2489,15 +2490,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" s="2">
         <v>1403</v>
@@ -2524,15 +2525,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="2">
         <v>1403</v>
@@ -2559,15 +2560,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" s="2">
         <v>1403</v>
@@ -2594,15 +2595,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" s="2">
         <v>1403</v>
@@ -2630,7 +2631,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L51"/>
+  <autoFilter ref="A1:L51" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
